--- a/ExcelDocument.xlsx
+++ b/ExcelDocument.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20424" windowHeight="8196"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Общая информация" sheetId="3" r:id="rId1"/>
     <sheet name="Варианты" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="Лист1" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
   <si>
     <t>Вариант</t>
   </si>
@@ -202,13 +202,25 @@
   </si>
   <si>
     <t>FCFI</t>
+  </si>
+  <si>
+    <t>Количество дней в году</t>
+  </si>
+  <si>
+    <t>Summa rasxodov</t>
+  </si>
+  <si>
+    <t>Года идут вниз</t>
+  </si>
+  <si>
+    <t>Зеленая - сумма</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,7 +279,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -370,11 +382,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -414,6 +437,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -474,7 +498,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -506,9 +530,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -540,6 +565,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -715,30 +741,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="70" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="10"/>
-    <col min="8" max="8" width="21.77734375" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="10"/>
+    <col min="8" max="8" width="21.7109375" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -749,23 +775,31 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="C3">
+        <f>20/5</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="D4">
+        <f>B2/B3*1000</f>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -773,7 +807,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>26</v>
       </c>
@@ -796,7 +830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
@@ -804,7 +838,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>24</v>
       </c>
@@ -835,7 +869,7 @@
         <v>53600</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>27</v>
       </c>
@@ -843,7 +877,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H10" t="s">
         <v>34</v>
       </c>
@@ -868,7 +902,7 @@
         <v>49848</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
@@ -888,7 +922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -932,7 +966,7 @@
         <v>29048</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -952,7 +986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -995,14 +1029,14 @@
         <v>20048</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:14" ht="28.8">
+    <row r="16" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="9">
         <v>12</v>
@@ -1035,7 +1069,7 @@
       </c>
       <c r="N16" s="26"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>2</v>
       </c>
@@ -1044,7 +1078,7 @@
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
@@ -1055,7 +1089,7 @@
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -1079,7 +1113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -1127,7 +1161,7 @@
         <v>9160.8322494441654</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>4</v>
       </c>
@@ -1153,7 +1187,7 @@
         <v>5948.3327500000005</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,7 +1212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
@@ -1186,7 +1220,9 @@
         <v>60</v>
       </c>
       <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
+      <c r="D23" s="8" t="s">
+        <v>63</v>
+      </c>
       <c r="E23" s="8"/>
       <c r="H23" s="25" t="s">
         <v>57</v>
@@ -1204,7 +1240,7 @@
         <v>589.47441666666668</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>6</v>
       </c>
@@ -1212,7 +1248,10 @@
         <v>5</v>
       </c>
       <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
+      <c r="D24" s="8">
+        <f>(B24+B25)*1000</f>
+        <v>9000</v>
+      </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="11"/>
@@ -1240,7 +1279,7 @@
         <v>17638.400000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
@@ -1255,7 +1294,7 @@
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
     </row>
-    <row r="26" spans="1:17" ht="43.2">
+    <row r="26" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>12</v>
       </c>
@@ -1289,7 +1328,7 @@
         <v>9160.8322494441654</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
@@ -1307,7 +1346,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>9</v>
       </c>
@@ -1319,7 +1358,7 @@
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8">
-        <f t="shared" ref="E28:E31" si="8">360/B28</f>
+        <f t="shared" ref="E28:E32" si="8">360/B28</f>
         <v>18</v>
       </c>
       <c r="F28" s="8"/>
@@ -1348,7 +1387,7 @@
         <v>28362.72908434521</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>10</v>
       </c>
@@ -1368,7 +1407,7 @@
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>11</v>
       </c>
@@ -1409,7 +1448,7 @@
         <v>1.1167683672202093</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>13</v>
       </c>
@@ -1424,16 +1463,23 @@
         <v>9.7297297297297298</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="33">
+        <v>360</v>
+      </c>
+      <c r="E32" s="25"/>
       <c r="H32" s="21" t="s">
         <v>43</v>
       </c>
       <c r="M32" s="23">
         <f>IRR(L20:Q20)</f>
-        <v>0.3007242636640442</v>
-      </c>
-    </row>
-    <row r="34" spans="8:14">
+        <v>0.3007242636640437</v>
+      </c>
+    </row>
+    <row r="34" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H34" s="21" t="s">
         <v>44</v>
       </c>
@@ -1453,7 +1499,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="8:14">
+    <row r="36" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H36" s="21" t="s">
         <v>45</v>
       </c>
@@ -1477,7 +1523,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="8:14">
+    <row r="38" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H38" s="13" t="s">
         <v>50</v>
       </c>
@@ -1499,8 +1545,11 @@
       <c r="N38" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="8:14">
+      <c r="O38" s="25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H39" s="16"/>
       <c r="I39" s="8">
         <f>($B$4*1000*B12*B21)/(360/B27)</f>
@@ -1523,8 +1572,11 @@
         <v>2086388.8888888888</v>
       </c>
       <c r="N39" s="17"/>
-    </row>
-    <row r="40" spans="8:14">
+      <c r="O39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H40" s="16" t="s">
         <v>56</v>
       </c>
@@ -1538,7 +1590,7 @@
       <c r="M40" s="25"/>
       <c r="N40" s="29"/>
     </row>
-    <row r="41" spans="8:14">
+    <row r="41" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H41" s="16"/>
       <c r="I41" s="30">
         <f>I42-I39</f>
@@ -1565,7 +1617,7 @@
         <v>1542.0416666666665</v>
       </c>
     </row>
-    <row r="42" spans="8:14">
+    <row r="42" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H42" s="16"/>
       <c r="I42" s="8">
         <f>($B$4*1000*$C12*$B21)/$E27</f>
@@ -1591,7 +1643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="8:14">
+    <row r="43" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H43" s="16"/>
       <c r="I43" s="30">
         <f>I44-I42</f>
@@ -1618,7 +1670,7 @@
         <v>771.02083333333337</v>
       </c>
     </row>
-    <row r="44" spans="8:14">
+    <row r="44" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H44" s="16"/>
       <c r="I44" s="8">
         <f>($B$4*1000*$D$12*$B$21)/$E$27</f>
@@ -1644,7 +1696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="8:14">
+    <row r="45" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H45" s="16"/>
       <c r="I45" s="30">
         <v>0</v>
@@ -1665,7 +1717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="8:14">
+    <row r="46" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H46" s="16"/>
       <c r="I46" s="8">
         <f>($B$4*1000*$E$12*$B$21)/$E$27</f>
@@ -1691,7 +1743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="8:14">
+    <row r="47" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H47" s="16"/>
       <c r="I47" s="30">
         <f>I48-I46</f>
@@ -1718,7 +1770,7 @@
         <v>-1542.0416666666665</v>
       </c>
     </row>
-    <row r="48" spans="8:14">
+    <row r="48" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H48" s="16"/>
       <c r="I48" s="8">
         <f>($B$4*1000*$F$12*$B$21)/$E$27</f>
@@ -1744,7 +1796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="8:14">
+    <row r="49" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H49" s="16"/>
       <c r="I49" s="30">
         <f>I50-I48</f>
@@ -1771,7 +1823,7 @@
         <v>-6168.1666666666661</v>
       </c>
     </row>
-    <row r="50" spans="8:14">
+    <row r="50" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H50" s="18"/>
       <c r="I50" s="19">
         <v>0</v>
@@ -1792,7 +1844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="8:14">
+    <row r="54" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H54" s="27" t="s">
         <v>61</v>
       </c>
@@ -1824,19 +1876,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Z17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M2" sqref="M2:M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26">
+    <row r="1" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
@@ -1865,7 +1917,7 @@
       <c r="Y1" s="32"/>
       <c r="Z1" s="32"/>
     </row>
-    <row r="2" spans="2:26">
+    <row r="2" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B2" s="9">
         <v>1</v>
       </c>
@@ -1939,7 +1991,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="2:26">
+    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1965,7 +2017,7 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="2:26">
+    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>690</v>
       </c>
@@ -2039,7 +2091,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="5" spans="2:26">
+    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <f t="shared" ref="B5:L5" si="0">B7+B8+B9</f>
         <v>480</v>
@@ -2137,7 +2189,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="6" spans="2:26">
+    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -2163,7 +2215,7 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" spans="2:26">
+    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>330</v>
       </c>
@@ -2237,7 +2289,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="8" spans="2:26">
+    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>100</v>
       </c>
@@ -2311,7 +2363,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="2:26">
+    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>50</v>
       </c>
@@ -2385,7 +2437,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="2:26">
+    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>5</v>
       </c>
@@ -2459,7 +2511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:26">
+    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>4</v>
       </c>
@@ -2533,7 +2585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:26">
+    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -2559,7 +2611,7 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="2:26">
+    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>18</v>
       </c>
@@ -2633,7 +2685,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="2:26">
+    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>11</v>
       </c>
@@ -2707,7 +2759,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="2:26">
+    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>8</v>
       </c>
@@ -2781,7 +2833,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="2:26">
+    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>26</v>
       </c>
@@ -2855,7 +2907,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="2:26">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>36</v>
       </c>
@@ -2939,19 +2991,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="92.44140625" customWidth="1"/>
+    <col min="1" max="1" width="92.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>46</v>
       </c>

--- a/ExcelDocument.xlsx
+++ b/ExcelDocument.xlsx
@@ -434,10 +434,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -744,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" topLeftCell="D28" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1358,7 +1358,7 @@
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8">
-        <f t="shared" ref="E28:E32" si="8">360/B28</f>
+        <f t="shared" ref="E28:E31" si="8">360/B28</f>
         <v>18</v>
       </c>
       <c r="F28" s="8"/>
@@ -1464,10 +1464,10 @@
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="33">
+      <c r="B32" s="32">
         <v>360</v>
       </c>
       <c r="E32" s="25"/>
@@ -1889,33 +1889,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
     </row>
     <row r="2" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B2" s="9">

--- a/ExcelDocument.xlsx
+++ b/ExcelDocument.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Общая информация" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
   <si>
     <t>Вариант</t>
   </si>
@@ -205,15 +205,6 @@
   </si>
   <si>
     <t>Количество дней в году</t>
-  </si>
-  <si>
-    <t>Summa rasxodov</t>
-  </si>
-  <si>
-    <t>Года идут вниз</t>
-  </si>
-  <si>
-    <t>Зеленая - сумма</t>
   </si>
 </sst>
 </file>
@@ -397,13 +388,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -434,6 +422,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -744,15 +734,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D28" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView tabSelected="1" topLeftCell="E16" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="70" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="10"/>
+    <col min="7" max="7" width="8.85546875" style="7"/>
     <col min="8" max="8" width="21.7109375" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
@@ -782,10 +773,6 @@
       <c r="B3" s="1">
         <v>5</v>
       </c>
-      <c r="C3">
-        <f>20/5</f>
-        <v>4</v>
-      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -794,10 +781,6 @@
       <c r="B4" s="1">
         <v>100</v>
       </c>
-      <c r="D4">
-        <f>B2/B3*1000</f>
-        <v>4000</v>
-      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -808,10 +791,10 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="29">
         <v>0.14000000000000001</v>
       </c>
       <c r="I6">
@@ -834,15 +817,15 @@
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="29">
         <v>0.11</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="29">
         <v>0.2</v>
       </c>
       <c r="H8" t="s">
@@ -870,10 +853,10 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="29">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -906,19 +889,19 @@
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="29">
         <v>1</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="29">
         <v>2</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="29">
         <v>3</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="29">
         <v>4</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="29">
         <v>5</v>
       </c>
     </row>
@@ -926,20 +909,20 @@
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="29">
         <f>0.7</f>
         <v>0.7</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="29">
         <v>0.9</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="29">
         <v>1</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="29">
         <v>1</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="29">
         <v>0.8</v>
       </c>
       <c r="H12" t="s">
@@ -970,19 +953,19 @@
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="30">
         <v>15</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="29">
         <v>10</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="29">
         <v>6</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="29">
         <v>3</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="29">
         <v>2</v>
       </c>
     </row>
@@ -990,19 +973,19 @@
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="29">
         <v>0.2</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="29">
         <v>0.4</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="29">
         <v>0.4</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="29" t="s">
         <v>22</v>
       </c>
       <c r="H14" t="s">
@@ -1030,21 +1013,21 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="9">
+      <c r="B16" s="6">
         <v>12</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="H16" s="12" t="s">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="H16" s="9" t="s">
         <v>41</v>
       </c>
       <c r="I16">
@@ -1067,16 +1050,16 @@
         <f>M14-M21+2000</f>
         <v>22048</v>
       </c>
-      <c r="N16" s="26"/>
+      <c r="N16" s="23"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="1"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -1085,9 +1068,9 @@
       <c r="B18" s="1">
         <v>670</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -1097,19 +1080,19 @@
         <f>B21+B22+B23</f>
         <v>460</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="H19" s="13" t="s">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="H19" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="I19" s="14">
+      <c r="I19" s="11">
         <v>1</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="11">
         <v>2</v>
       </c>
-      <c r="K19" s="15">
+      <c r="K19" s="12">
         <v>3</v>
       </c>
     </row>
@@ -1118,42 +1101,38 @@
         <v>1</v>
       </c>
       <c r="B20" s="1"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="H20" s="16" t="s">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="H20" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="5">
         <f>((C2*1000)+I40)*(1+B7)</f>
         <v>14870.831875</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J20" s="5">
         <f>I22</f>
         <v>10717.716666666667</v>
       </c>
-      <c r="K20" s="17">
+      <c r="K20" s="14">
         <f>J22</f>
         <v>5358.8583333333336</v>
       </c>
       <c r="L20">
-        <f>-1*(I40+20000)</f>
-        <v>-25397.145833333332</v>
+        <v>-21224.37</v>
       </c>
       <c r="M20">
-        <f>I26</f>
-        <v>8255.3577485380101</v>
+        <v>8451.0630000000001</v>
       </c>
       <c r="N20">
-        <f t="shared" ref="N20:P20" si="5">J26</f>
-        <v>10859.460038986348</v>
+        <v>11613.27</v>
       </c>
       <c r="O20">
-        <f t="shared" si="5"/>
-        <v>12074.790758829969</v>
+        <v>12856.05</v>
       </c>
       <c r="P20">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="N20:P20" si="5">L26</f>
         <v>13409.434121880047</v>
       </c>
       <c r="Q20">
@@ -1168,21 +1147,21 @@
       <c r="B21" s="1">
         <v>290</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="H21" s="16" t="s">
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="H21" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21" s="5">
         <f>(((C2*1000)+I40)*0.2)+I23</f>
         <v>4153.1152083333336</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J21" s="5">
         <f>((C2*1000)+I40)*0.4+J23</f>
         <v>6537.8071666666674</v>
       </c>
-      <c r="K21" s="17">
+      <c r="K21" s="14">
         <f>K20+K23</f>
         <v>5948.3327500000005</v>
       </c>
@@ -1194,21 +1173,21 @@
       <c r="B22" s="1">
         <v>110</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="H22" s="18" t="s">
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="H22" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="I22" s="19">
+      <c r="I22" s="16">
         <f>I20-I21</f>
         <v>10717.716666666667</v>
       </c>
-      <c r="J22" s="19">
+      <c r="J22" s="16">
         <f>((C2*1000)+I40)*0.4</f>
         <v>5358.8583333333336</v>
       </c>
-      <c r="K22" s="20">
+      <c r="K22" s="17">
         <v>0</v>
       </c>
     </row>
@@ -1219,12 +1198,10 @@
       <c r="B23" s="1">
         <v>60</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="H23" s="25" t="s">
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="H23" s="22" t="s">
         <v>57</v>
       </c>
       <c r="I23">
@@ -1247,34 +1224,31 @@
       <c r="B24" s="1">
         <v>5</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8">
-        <f>(B24+B25)*1000</f>
-        <v>9000</v>
-      </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="8" t="s">
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I24" s="8">
+      <c r="I24" s="5">
         <f>I16*(1-$B$8)</f>
         <v>9411.1078333333335</v>
       </c>
-      <c r="J24" s="8">
+      <c r="J24" s="5">
         <f t="shared" ref="J24:M24" si="6">J16*(1-$B$8)</f>
         <v>14112.954266666662</v>
       </c>
-      <c r="K24" s="8">
+      <c r="K24" s="5">
         <f t="shared" si="6"/>
         <v>17889.333799999993</v>
       </c>
-      <c r="L24" s="8">
+      <c r="L24" s="5">
         <f t="shared" si="6"/>
         <v>22647.999999999996</v>
       </c>
-      <c r="M24" s="8">
+      <c r="M24" s="5">
         <f t="shared" si="6"/>
         <v>17638.400000000001</v>
       </c>
@@ -1286,25 +1260,25 @@
       <c r="B25" s="1">
         <v>4</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
     </row>
     <row r="26" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="1"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="12" t="s">
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="9" t="s">
         <v>32</v>
       </c>
       <c r="I26">
@@ -1335,16 +1309,16 @@
       <c r="B27" s="1">
         <v>19</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8">
-        <f>360/B27</f>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5">
+        <f>$B$32/B27</f>
         <v>18.94736842105263</v>
       </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="11"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="8"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -1353,38 +1327,38 @@
       <c r="B28" s="1">
         <v>20</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8">
-        <f t="shared" ref="E28:E31" si="8">360/B28</f>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5">
+        <f t="shared" ref="E28:E30" si="8">$B$32/B28</f>
         <v>18</v>
       </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="21" t="s">
+      <c r="F28" s="5"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="18" t="s">
         <v>31</v>
       </c>
       <c r="I28">
         <f>I26+L20</f>
-        <v>-17141.78808479532</v>
+        <v>-12969.012251461989</v>
       </c>
       <c r="J28">
         <f>J26+I26+L20</f>
-        <v>-6282.3280458089757</v>
+        <v>-2109.5522124756426</v>
       </c>
       <c r="K28">
         <f>K26+I26+J26+L20</f>
-        <v>5792.4627130209956</v>
+        <v>9965.2385463543287</v>
       </c>
       <c r="L28">
         <f>L26+I26+J26+K26+L20</f>
-        <v>19201.896834901043</v>
+        <v>23374.672668234376</v>
       </c>
       <c r="M28">
         <f>M26+I26+J26+K26+L26+L20</f>
-        <v>28362.72908434521</v>
+        <v>32535.504917678543</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
@@ -1394,18 +1368,18 @@
       <c r="B29" s="1">
         <v>5</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8">
+      <c r="D29" s="5"/>
+      <c r="E29" s="5">
         <f t="shared" si="8"/>
         <v>72</v>
       </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -1414,38 +1388,38 @@
       <c r="B30" s="1">
         <v>25</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8">
+      <c r="D30" s="5"/>
+      <c r="E30" s="5">
         <f t="shared" si="8"/>
         <v>14.4</v>
       </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="22" t="s">
+      <c r="F30" s="5"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="I30" s="8">
+      <c r="I30" s="5">
         <f>I28/(-1*$L$20)</f>
-        <v>-0.67494938987581066</v>
-      </c>
-      <c r="J30" s="8">
+        <v>-0.61104344917950404</v>
+      </c>
+      <c r="J30" s="5">
         <f t="shared" ref="J30:M30" si="9">J28/(-1*$L$20)</f>
-        <v>-0.24736354577149078</v>
-      </c>
-      <c r="K30" s="8">
+        <v>-9.9392924853630174E-2</v>
+      </c>
+      <c r="K30" s="5">
         <f t="shared" si="9"/>
-        <v>0.22807534165585192</v>
-      </c>
-      <c r="L30" s="8">
+        <v>0.46951869696741666</v>
+      </c>
+      <c r="L30" s="5">
         <f t="shared" si="9"/>
-        <v>0.75606514845848827</v>
-      </c>
-      <c r="M30" s="8">
+        <v>1.1013129090867892</v>
+      </c>
+      <c r="M30" s="5">
         <f t="shared" si="9"/>
-        <v>1.1167683672202093</v>
+        <v>1.5329314800711891</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
@@ -1455,397 +1429,391 @@
       <c r="B31" s="1">
         <v>37</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="E31" s="8">
-        <f t="shared" si="8"/>
+      <c r="E31" s="5">
+        <f>$B$32/B31</f>
         <v>9.7297297297297298</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="32">
+      <c r="B32" s="31">
         <v>360</v>
       </c>
-      <c r="E32" s="25"/>
-      <c r="H32" s="21" t="s">
+      <c r="E32" s="22"/>
+      <c r="H32" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="M32" s="23">
+      <c r="M32" s="20">
         <f>IRR(L20:Q20)</f>
-        <v>0.3007242636640437</v>
-      </c>
-    </row>
-    <row r="34" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H34" s="21" t="s">
+        <v>0.41623492718088628</v>
+      </c>
+    </row>
+    <row r="34" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H34" s="18" t="s">
         <v>44</v>
       </c>
       <c r="I34">
         <f>$L$20+I24</f>
-        <v>-15986.037999999999</v>
+        <v>-11813.262166666666</v>
       </c>
       <c r="J34">
         <f>$L$20+J24+I24</f>
-        <v>-1873.0837333333366</v>
+        <v>2299.6920999999966</v>
       </c>
       <c r="K34">
         <f>$L$20+K24+I24+J24</f>
-        <v>16016.250066666656</v>
+        <v>20189.02589999999</v>
       </c>
       <c r="M34" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H36" s="21" t="s">
+    <row r="36" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H36" s="18" t="s">
         <v>45</v>
       </c>
       <c r="I36">
         <f>$L$20+I26</f>
-        <v>-17141.78808479532</v>
+        <v>-12969.012251461989</v>
       </c>
       <c r="J36">
         <f>$L$20+J26+I26</f>
-        <v>-6282.3280458089739</v>
+        <v>-2109.5522124756408</v>
       </c>
       <c r="K36">
         <f>$L$20+K26+J26+I26</f>
-        <v>5792.4627130209956</v>
+        <v>9965.2385463543287</v>
       </c>
       <c r="L36">
         <f>$L$20+L26+K26+J26+I26</f>
-        <v>19201.896834901043</v>
+        <v>23374.672668234376</v>
       </c>
       <c r="M36" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H38" s="13" t="s">
+    <row r="38" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H38" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="I38" s="14" t="s">
+      <c r="I38" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="J38" s="14" t="s">
+      <c r="J38" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="K38" s="14" t="s">
+      <c r="K38" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="L38" s="14" t="s">
+      <c r="L38" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="M38" s="14" t="s">
+      <c r="M38" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="N38" s="15">
+      <c r="N38" s="12">
         <v>0</v>
       </c>
-      <c r="O38" s="25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H39" s="16"/>
-      <c r="I39" s="8">
+    </row>
+    <row r="39" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H39" s="13"/>
+      <c r="I39" s="5">
         <f>($B$4*1000*B12*B21)/(360/B27)</f>
         <v>1071388.888888889</v>
       </c>
-      <c r="J39" s="8">
+      <c r="J39" s="5">
         <f>($B$4*1000*B12*B19)/(360/$B28)</f>
         <v>1788888.888888889</v>
       </c>
-      <c r="K39" s="8">
+      <c r="K39" s="5">
         <f>($B$4*1000*B12*B19)/(360/$B29)</f>
         <v>447222.22222222225</v>
       </c>
-      <c r="L39" s="8">
+      <c r="L39" s="5">
         <f>I8/(360/$B30)</f>
         <v>3256.9444444444443</v>
       </c>
-      <c r="M39" s="8">
+      <c r="M39" s="5">
         <f>($B$4*1000*B12*B21)/(360/$B31)</f>
         <v>2086388.8888888888</v>
       </c>
-      <c r="N39" s="17"/>
-      <c r="O39" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H40" s="16" t="s">
+      <c r="N39" s="14"/>
+    </row>
+    <row r="40" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H40" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="I40" s="28">
+      <c r="I40" s="25">
         <f>SUM(I39,J39,K39,L39,M39)/1000</f>
         <v>5397.145833333333</v>
       </c>
-      <c r="J40" s="25"/>
-      <c r="K40" s="25"/>
-      <c r="L40" s="25"/>
-      <c r="M40" s="25"/>
-      <c r="N40" s="29"/>
-    </row>
-    <row r="41" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H41" s="16"/>
-      <c r="I41" s="30">
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="26"/>
+    </row>
+    <row r="41" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H41" s="13"/>
+      <c r="I41" s="27">
         <f>I42-I39</f>
         <v>306111.11111111101</v>
       </c>
-      <c r="J41" s="30">
+      <c r="J41" s="27">
         <f t="shared" ref="J41:M41" si="10">J42-J39</f>
         <v>511111.11111111101</v>
       </c>
-      <c r="K41" s="30">
+      <c r="K41" s="27">
         <f t="shared" si="10"/>
         <v>127777.77777777775</v>
       </c>
-      <c r="L41" s="30">
+      <c r="L41" s="27">
         <f t="shared" si="10"/>
         <v>930.55555555555566</v>
       </c>
-      <c r="M41" s="30">
+      <c r="M41" s="27">
         <f t="shared" si="10"/>
         <v>596111.11111111124</v>
       </c>
-      <c r="N41" s="31">
+      <c r="N41" s="28">
         <f>SUM(I41,J41,K41,L41,M41)/1000</f>
         <v>1542.0416666666665</v>
       </c>
     </row>
-    <row r="42" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H42" s="16"/>
-      <c r="I42" s="8">
+    <row r="42" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H42" s="13"/>
+      <c r="I42" s="5">
         <f>($B$4*1000*$C12*$B21)/$E27</f>
         <v>1377500</v>
       </c>
-      <c r="J42" s="8">
+      <c r="J42" s="5">
         <f>($B$4*1000*$C12*$B19)/$E28</f>
         <v>2300000</v>
       </c>
-      <c r="K42" s="8">
+      <c r="K42" s="5">
         <f>($B$4*1000*$C12*$B19)/$E29</f>
         <v>575000</v>
       </c>
-      <c r="L42" s="8">
+      <c r="L42" s="5">
         <f>J8/$E30</f>
         <v>4187.5</v>
       </c>
-      <c r="M42" s="8">
+      <c r="M42" s="5">
         <f>($B$4*1000*$C12*$B21)/$E31</f>
         <v>2682500</v>
       </c>
-      <c r="N42" s="17">
+      <c r="N42" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H43" s="16"/>
-      <c r="I43" s="30">
+    <row r="43" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H43" s="13"/>
+      <c r="I43" s="27">
         <f>I44-I42</f>
         <v>153055.55555555574</v>
       </c>
-      <c r="J43" s="30">
+      <c r="J43" s="27">
         <f t="shared" ref="J43:M43" si="11">J44-J42</f>
         <v>255555.5555555555</v>
       </c>
-      <c r="K43" s="30">
+      <c r="K43" s="27">
         <f t="shared" si="11"/>
         <v>63888.888888888876</v>
       </c>
-      <c r="L43" s="30">
+      <c r="L43" s="27">
         <f t="shared" si="11"/>
         <v>465.27777777777737</v>
       </c>
-      <c r="M43" s="30">
+      <c r="M43" s="27">
         <f t="shared" si="11"/>
         <v>298055.5555555555</v>
       </c>
-      <c r="N43" s="31">
+      <c r="N43" s="28">
         <f>SUM(I43,J43,K43,L43,M43)/1000</f>
         <v>771.02083333333337</v>
       </c>
     </row>
-    <row r="44" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H44" s="16"/>
-      <c r="I44" s="8">
+    <row r="44" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H44" s="13"/>
+      <c r="I44" s="5">
         <f>($B$4*1000*$D$12*$B$21)/$E$27</f>
         <v>1530555.5555555557</v>
       </c>
-      <c r="J44" s="8">
+      <c r="J44" s="5">
         <f>($B$4*1000*$D$12*$B$19)/$E$28</f>
         <v>2555555.5555555555</v>
       </c>
-      <c r="K44" s="8">
+      <c r="K44" s="5">
         <f>($B$4*1000*$D$12*$B$19)/$E$29</f>
         <v>638888.88888888888</v>
       </c>
-      <c r="L44" s="8">
+      <c r="L44" s="5">
         <f>K8/$E$30</f>
         <v>4652.7777777777774</v>
       </c>
-      <c r="M44" s="8">
+      <c r="M44" s="5">
         <f>($B$4*1000*$D$12*$B$21)/$E$31</f>
         <v>2980555.5555555555</v>
       </c>
-      <c r="N44" s="17">
+      <c r="N44" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H45" s="16"/>
-      <c r="I45" s="30">
+    <row r="45" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H45" s="13"/>
+      <c r="I45" s="27">
         <v>0</v>
       </c>
-      <c r="J45" s="30">
+      <c r="J45" s="27">
         <v>0</v>
       </c>
-      <c r="K45" s="30">
+      <c r="K45" s="27">
         <v>0</v>
       </c>
-      <c r="L45" s="30">
+      <c r="L45" s="27">
         <v>0</v>
       </c>
-      <c r="M45" s="30">
+      <c r="M45" s="27">
         <v>0</v>
       </c>
-      <c r="N45" s="31">
+      <c r="N45" s="28">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H46" s="16"/>
-      <c r="I46" s="8">
+    <row r="46" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H46" s="13"/>
+      <c r="I46" s="5">
         <f>($B$4*1000*$E$12*$B$21)/$E$27</f>
         <v>1530555.5555555557</v>
       </c>
-      <c r="J46" s="8">
+      <c r="J46" s="5">
         <f>($B$4*1000*$E$12*$B$19)/$E$28</f>
         <v>2555555.5555555555</v>
       </c>
-      <c r="K46" s="8">
+      <c r="K46" s="5">
         <f>($B$4*1000*$E$12*$B$19)/$E$29</f>
         <v>638888.88888888888</v>
       </c>
-      <c r="L46" s="8">
+      <c r="L46" s="5">
         <f>L8/$E$30</f>
         <v>4652.7777777777774</v>
       </c>
-      <c r="M46" s="8">
+      <c r="M46" s="5">
         <f>($B$4*1000*$E$12*$B$21)/$E$31</f>
         <v>2980555.5555555555</v>
       </c>
-      <c r="N46" s="17">
+      <c r="N46" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H47" s="16"/>
-      <c r="I47" s="30">
+    <row r="47" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H47" s="13"/>
+      <c r="I47" s="27">
         <f>I48-I46</f>
         <v>-306111.11111111124</v>
       </c>
-      <c r="J47" s="30">
+      <c r="J47" s="27">
         <f t="shared" ref="J47:M47" si="12">J48-J46</f>
         <v>-511111.11111111101</v>
       </c>
-      <c r="K47" s="30">
+      <c r="K47" s="27">
         <f t="shared" si="12"/>
         <v>-127777.77777777775</v>
       </c>
-      <c r="L47" s="30">
+      <c r="L47" s="27">
         <f t="shared" si="12"/>
         <v>-930.5555555555552</v>
       </c>
-      <c r="M47" s="30">
+      <c r="M47" s="27">
         <f t="shared" si="12"/>
         <v>-596111.11111111101</v>
       </c>
-      <c r="N47" s="31">
+      <c r="N47" s="28">
         <f>SUM(I47:M47)/1000</f>
         <v>-1542.0416666666665</v>
       </c>
     </row>
-    <row r="48" spans="8:15" x14ac:dyDescent="0.25">
-      <c r="H48" s="16"/>
-      <c r="I48" s="8">
+    <row r="48" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H48" s="13"/>
+      <c r="I48" s="5">
         <f>($B$4*1000*$F$12*$B$21)/$E$27</f>
         <v>1224444.4444444445</v>
       </c>
-      <c r="J48" s="8">
+      <c r="J48" s="5">
         <f>($B$4*1000*$F$12*$B$19)/$E$28</f>
         <v>2044444.4444444445</v>
       </c>
-      <c r="K48" s="8">
+      <c r="K48" s="5">
         <f>($B$4*1000*$F$12*$B$19)/$E$29</f>
         <v>511111.11111111112</v>
       </c>
-      <c r="L48" s="8">
+      <c r="L48" s="5">
         <f>M8/$E$30</f>
         <v>3722.2222222222222</v>
       </c>
-      <c r="M48" s="8">
+      <c r="M48" s="5">
         <f>($B$4*1000*$F$12*$B$21)/$E$31</f>
         <v>2384444.4444444445</v>
       </c>
-      <c r="N48" s="17">
+      <c r="N48" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="49" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H49" s="16"/>
-      <c r="I49" s="30">
+      <c r="H49" s="13"/>
+      <c r="I49" s="27">
         <f>I50-I48</f>
         <v>-1224444.4444444445</v>
       </c>
-      <c r="J49" s="30">
+      <c r="J49" s="27">
         <f t="shared" ref="J49:M49" si="13">J50-J48</f>
         <v>-2044444.4444444445</v>
       </c>
-      <c r="K49" s="30">
+      <c r="K49" s="27">
         <f t="shared" si="13"/>
         <v>-511111.11111111112</v>
       </c>
-      <c r="L49" s="30">
+      <c r="L49" s="27">
         <f t="shared" si="13"/>
         <v>-3722.2222222222222</v>
       </c>
-      <c r="M49" s="30">
+      <c r="M49" s="27">
         <f t="shared" si="13"/>
         <v>-2384444.4444444445</v>
       </c>
-      <c r="N49" s="31">
+      <c r="N49" s="28">
         <f>SUM(I49:M49)/1000</f>
         <v>-6168.1666666666661</v>
       </c>
     </row>
     <row r="50" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H50" s="18"/>
-      <c r="I50" s="19">
+      <c r="H50" s="15"/>
+      <c r="I50" s="16">
         <v>0</v>
       </c>
-      <c r="J50" s="19">
+      <c r="J50" s="16">
         <v>0</v>
       </c>
-      <c r="K50" s="19">
+      <c r="K50" s="16">
         <v>0</v>
       </c>
-      <c r="L50" s="19">
+      <c r="L50" s="16">
         <v>0</v>
       </c>
-      <c r="M50" s="19">
+      <c r="M50" s="16">
         <v>0</v>
       </c>
-      <c r="N50" s="20">
+      <c r="N50" s="17">
         <v>5</v>
       </c>
     </row>
     <row r="54" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H54" s="27" t="s">
+      <c r="H54" s="24" t="s">
         <v>61</v>
       </c>
       <c r="I54">
@@ -1889,105 +1857,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
     </row>
     <row r="2" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B2" s="9">
+      <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="6">
         <v>2</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="6">
         <v>3</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="6">
         <v>4</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="6">
         <v>5</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="6">
         <v>6</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="6">
         <v>7</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="6">
         <v>8</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="6">
         <v>9</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="6">
         <v>10</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="6">
         <v>11</v>
       </c>
-      <c r="N2" s="9">
+      <c r="N2" s="6">
         <v>13</v>
       </c>
-      <c r="O2" s="9">
+      <c r="O2" s="6">
         <v>14</v>
       </c>
-      <c r="P2" s="9">
+      <c r="P2" s="6">
         <v>15</v>
       </c>
-      <c r="Q2" s="9">
+      <c r="Q2" s="6">
         <v>16</v>
       </c>
-      <c r="R2" s="9">
+      <c r="R2" s="6">
         <v>17</v>
       </c>
-      <c r="S2" s="9">
+      <c r="S2" s="6">
         <v>18</v>
       </c>
-      <c r="T2" s="9">
+      <c r="T2" s="6">
         <v>19</v>
       </c>
-      <c r="U2" s="9">
+      <c r="U2" s="6">
         <v>20</v>
       </c>
-      <c r="V2" s="9">
+      <c r="V2" s="6">
         <v>21</v>
       </c>
-      <c r="W2" s="9">
+      <c r="W2" s="6">
         <v>22</v>
       </c>
-      <c r="X2" s="9">
+      <c r="X2" s="6">
         <v>23</v>
       </c>
-      <c r="Y2" s="9">
+      <c r="Y2" s="6">
         <v>24</v>
       </c>
-      <c r="Z2" s="9">
+      <c r="Z2" s="6">
         <v>25</v>
       </c>
     </row>
@@ -3004,7 +2972,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="21" t="s">
         <v>46</v>
       </c>
     </row>

--- a/ExcelDocument.xlsx
+++ b/ExcelDocument.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Вариант</t>
   </si>
@@ -108,54 +108,6 @@
     <t>Остаточная рыночная стоимость оборудования на конец года, в млн. руб.</t>
   </si>
   <si>
-    <t>Чистая прибыль</t>
-  </si>
-  <si>
-    <t>NPV</t>
-  </si>
-  <si>
-    <t>Чистый дисконтированный денежный поток</t>
-  </si>
-  <si>
-    <t>Выручка</t>
-  </si>
-  <si>
-    <t>Выручка минус налог</t>
-  </si>
-  <si>
-    <t>Прибыль от продаж</t>
-  </si>
-  <si>
-    <t>Рассчёт кредита</t>
-  </si>
-  <si>
-    <t>Долг</t>
-  </si>
-  <si>
-    <t>Платёж</t>
-  </si>
-  <si>
-    <t>Остаток на конец года</t>
-  </si>
-  <si>
-    <t>Валовая прибыль</t>
-  </si>
-  <si>
-    <t>Прибыль до налогообложения</t>
-  </si>
-  <si>
-    <t>PI</t>
-  </si>
-  <si>
-    <t>IRR</t>
-  </si>
-  <si>
-    <t>PBP(Срок окупаемости)</t>
-  </si>
-  <si>
-    <t>DPBP(Диск.Срок окупа)</t>
-  </si>
-  <si>
     <t>Если величина IRR проекта больше стоимости капитала для компании (т.е. WACC), то проект следует принять.</t>
   </si>
   <si>
@@ -168,37 +120,7 @@
     <t>СИМ</t>
   </si>
   <si>
-    <t>Операционный капитал</t>
-  </si>
-  <si>
-    <t>СиМ</t>
-  </si>
-  <si>
-    <t>НЗП</t>
-  </si>
-  <si>
-    <t>ЗГП</t>
-  </si>
-  <si>
-    <t>ДЗ</t>
-  </si>
-  <si>
-    <t>КЗ</t>
-  </si>
-  <si>
-    <t>Сумма</t>
-  </si>
-  <si>
-    <t>Проценты</t>
-  </si>
-  <si>
     <t>сим</t>
-  </si>
-  <si>
-    <t>1 год</t>
-  </si>
-  <si>
-    <t>2 года</t>
   </si>
   <si>
     <t>FCFI</t>
@@ -238,18 +160,12 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -259,18 +175,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -293,138 +203,28 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -732,1109 +532,480 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q54"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E16" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="70" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="3"/>
+    <col min="4" max="4" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="3"/>
     <col min="7" max="7" width="8.85546875" style="7"/>
-    <col min="8" max="8" width="21.7109375" customWidth="1"/>
-    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" style="3"/>
+    <col min="12" max="12" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>20</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>2</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>4</v>
-      </c>
-      <c r="M6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="9">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="9">
         <v>0.2</v>
       </c>
-      <c r="H8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8">
-        <f>$B$4*B$12*$B$18</f>
-        <v>46900</v>
-      </c>
-      <c r="J8">
-        <f t="shared" ref="J8:M8" si="0">$B$4*C$12*$B$18</f>
-        <v>60300</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="0"/>
-        <v>67000</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="0"/>
-        <v>67000</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="0"/>
-        <v>53600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="29">
+      <c r="B9" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10">
-        <f>I8*(100%-$B$9)</f>
-        <v>43617</v>
-      </c>
-      <c r="J10">
-        <f t="shared" ref="J10:M10" si="1">J8*(100%-$B$9)</f>
-        <v>56078.999999999993</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="1"/>
-        <v>62309.999999999993</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="1"/>
-        <v>62309.999999999993</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="1"/>
-        <v>49848</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="29">
+      <c r="B11" s="9">
         <v>1</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="9">
         <v>2</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="9">
         <v>3</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="9">
         <v>4</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="29">
+      <c r="B12" s="9">
         <f>0.7</f>
         <v>0.7</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="9">
         <v>0.9</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="9">
         <v>1</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="9">
         <v>1</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="9">
         <v>0.8</v>
       </c>
-      <c r="H12" t="s">
-        <v>40</v>
-      </c>
-      <c r="I12">
-        <f>I10-($B$4*B$12*($B$18-$B$19))-4000</f>
-        <v>24917</v>
-      </c>
-      <c r="J12">
-        <f t="shared" ref="J12:M12" si="2">J10-($B$4*C$12*($B$18-$B$19))-4000</f>
-        <v>33178.999999999993</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="2"/>
-        <v>37309.999999999993</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="2"/>
-        <v>37309.999999999993</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="2"/>
-        <v>29048</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="30">
+      <c r="B13" s="10">
         <v>15</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="9">
         <v>10</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="9">
         <v>6</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="9">
         <v>3</v>
       </c>
-      <c r="F13" s="29">
+      <c r="F13" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="29">
+      <c r="B14" s="9">
         <v>0.2</v>
       </c>
-      <c r="C14" s="29">
+      <c r="C14" s="9">
         <v>0.4</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="9">
         <v>0.4</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="29" t="s">
+      <c r="F14" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H14" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14">
-        <f>I12-9000</f>
-        <v>15917</v>
-      </c>
-      <c r="J14">
-        <f t="shared" ref="J14:M14" si="3">J12-9000</f>
-        <v>24178.999999999993</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="3"/>
-        <v>28309.999999999993</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="3"/>
-        <v>28309.999999999993</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="3"/>
-        <v>20048</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="6">
-        <v>12</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="H16" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I16">
-        <f>I14-I21</f>
-        <v>11763.884791666667</v>
-      </c>
-      <c r="J16">
-        <f t="shared" ref="J16:L16" si="4">J14-J21</f>
-        <v>17641.192833333327</v>
-      </c>
-      <c r="K16">
-        <f>K14-K21</f>
-        <v>22361.667249999991</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="4"/>
-        <v>28309.999999999993</v>
-      </c>
-      <c r="M16">
-        <f>M14-M21+2000</f>
-        <v>22048</v>
-      </c>
-      <c r="N16" s="23"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="11">
+        <v>8</v>
+      </c>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="1">
-        <v>670</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="B18" s="3">
+        <v>740</v>
+      </c>
+      <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="1">
-        <f>B21+B22+B23</f>
-        <v>460</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="H19" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I19" s="11">
+      <c r="B19" s="3">
+        <f t="shared" ref="B19" si="0">B21+B22+B23</f>
+        <v>540</v>
+      </c>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="J19" s="11">
-        <v>2</v>
-      </c>
-      <c r="K19" s="12">
+      <c r="G20" s="3"/>
+      <c r="P20" s="3">
+        <f t="shared" ref="P20" si="1">L26</f>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <f>M26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="3">
+        <v>380</v>
+      </c>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="3">
+        <v>120</v>
+      </c>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="3">
+        <v>40</v>
+      </c>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="3">
+        <v>6</v>
+      </c>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="H20" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I20" s="5">
-        <f>((C2*1000)+I40)*(1+B7)</f>
-        <v>14870.831875</v>
-      </c>
-      <c r="J20" s="5">
-        <f>I22</f>
-        <v>10717.716666666667</v>
-      </c>
-      <c r="K20" s="14">
-        <f>J22</f>
-        <v>5358.8583333333336</v>
-      </c>
-      <c r="L20">
-        <v>-21224.37</v>
-      </c>
-      <c r="M20">
-        <v>8451.0630000000001</v>
-      </c>
-      <c r="N20">
-        <v>11613.27</v>
-      </c>
-      <c r="O20">
-        <v>12856.05</v>
-      </c>
-      <c r="P20">
-        <f t="shared" ref="N20:P20" si="5">L26</f>
-        <v>13409.434121880047</v>
-      </c>
-      <c r="Q20">
-        <f>M26</f>
-        <v>9160.8322494441654</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="1">
-        <v>290</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="H21" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="5">
-        <f>(((C2*1000)+I40)*0.2)+I23</f>
-        <v>4153.1152083333336</v>
-      </c>
-      <c r="J21" s="5">
-        <f>((C2*1000)+I40)*0.4+J23</f>
-        <v>6537.8071666666674</v>
-      </c>
-      <c r="K21" s="14">
-        <f>K20+K23</f>
-        <v>5948.3327500000005</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="1">
-        <v>110</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="H22" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" s="16">
-        <f>I20-I21</f>
-        <v>10717.716666666667</v>
-      </c>
-      <c r="J22" s="16">
-        <f>((C2*1000)+I40)*0.4</f>
-        <v>5358.8583333333336</v>
-      </c>
-      <c r="K22" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="1">
-        <v>60</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="H23" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="I23">
-        <f>((C2*1000)+I40)*0.11</f>
-        <v>1473.6860416666666</v>
-      </c>
-      <c r="J23">
-        <f>I22*0.11</f>
-        <v>1178.9488333333334</v>
-      </c>
-      <c r="K23">
-        <f>J22*0.11</f>
-        <v>589.47441666666668</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="1">
-        <v>5</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I24" s="5">
-        <f>I16*(1-$B$8)</f>
-        <v>9411.1078333333335</v>
-      </c>
-      <c r="J24" s="5">
-        <f t="shared" ref="J24:M24" si="6">J16*(1-$B$8)</f>
-        <v>14112.954266666662</v>
-      </c>
-      <c r="K24" s="5">
-        <f t="shared" si="6"/>
-        <v>17889.333799999993</v>
-      </c>
-      <c r="L24" s="5">
-        <f t="shared" si="6"/>
-        <v>22647.999999999996</v>
-      </c>
-      <c r="M24" s="5">
-        <f t="shared" si="6"/>
-        <v>17638.400000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="1">
-        <v>4</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-    </row>
-    <row r="26" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="9" t="s">
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="3">
+        <v>16</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="3">
+        <f>$B$32/B27</f>
+        <v>22.5</v>
+      </c>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="3">
+        <v>18</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I26">
-        <f>I$24/(1+0.14)^B$11</f>
-        <v>8255.3577485380101</v>
-      </c>
-      <c r="J26">
-        <f t="shared" ref="J26:M26" si="7">J$24/(1+0.14)^C$11</f>
-        <v>10859.460038986348</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="7"/>
-        <v>12074.790758829969</v>
-      </c>
-      <c r="L26">
-        <f t="shared" si="7"/>
-        <v>13409.434121880047</v>
-      </c>
-      <c r="M26">
-        <f t="shared" si="7"/>
-        <v>9160.8322494441654</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="1">
-        <v>19</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5">
-        <f>$B$32/B27</f>
-        <v>18.94736842105263</v>
-      </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="8"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="1">
+      <c r="E28" s="3">
+        <f t="shared" ref="E28:E30" si="2">$B$32/B28</f>
         <v>20</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5">
-        <f t="shared" ref="E28:E30" si="8">$B$32/B28</f>
-        <v>18</v>
-      </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="18" t="s">
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="3">
+        <v>6</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="3">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="3">
+        <v>35</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I28">
-        <f>I26+L20</f>
-        <v>-12969.012251461989</v>
-      </c>
-      <c r="J28">
-        <f>J26+I26+L20</f>
-        <v>-2109.5522124756426</v>
-      </c>
-      <c r="K28">
-        <f>K26+I26+J26+L20</f>
-        <v>9965.2385463543287</v>
-      </c>
-      <c r="L28">
-        <f>L26+I26+J26+K26+L20</f>
-        <v>23374.672668234376</v>
-      </c>
-      <c r="M28">
-        <f>M26+I26+J26+K26+L26+L20</f>
-        <v>32535.504917678543</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="1">
-        <v>5</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5">
-        <f t="shared" si="8"/>
-        <v>72</v>
-      </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" s="1">
+      <c r="E30" s="3">
+        <f t="shared" si="2"/>
+        <v>10.285714285714286</v>
+      </c>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="3">
         <v>25</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5">
-        <f t="shared" si="8"/>
+      <c r="C31" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="3">
+        <f>$B$32/B31</f>
         <v>14.4</v>
       </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="I30" s="5">
-        <f>I28/(-1*$L$20)</f>
-        <v>-0.61104344917950404</v>
-      </c>
-      <c r="J30" s="5">
-        <f t="shared" ref="J30:M30" si="9">J28/(-1*$L$20)</f>
-        <v>-9.9392924853630174E-2</v>
-      </c>
-      <c r="K30" s="5">
-        <f t="shared" si="9"/>
-        <v>0.46951869696741666</v>
-      </c>
-      <c r="L30" s="5">
-        <f t="shared" si="9"/>
-        <v>1.1013129090867892</v>
-      </c>
-      <c r="M30" s="5">
-        <f t="shared" si="9"/>
-        <v>1.5329314800711891</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="1">
-        <v>37</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="5">
-        <f>$B$32/B31</f>
-        <v>9.7297297297297298</v>
-      </c>
+      <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="31">
+      <c r="A32" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="6">
         <v>360</v>
       </c>
-      <c r="E32" s="22"/>
-      <c r="H32" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="M32" s="20">
-        <f>IRR(L20:Q20)</f>
-        <v>0.41623492718088628</v>
-      </c>
-    </row>
-    <row r="34" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H34" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="I34">
-        <f>$L$20+I24</f>
-        <v>-11813.262166666666</v>
-      </c>
-      <c r="J34">
-        <f>$L$20+J24+I24</f>
-        <v>2299.6920999999966</v>
-      </c>
-      <c r="K34">
-        <f>$L$20+K24+I24+J24</f>
-        <v>20189.02589999999</v>
-      </c>
-      <c r="M34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H36" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="I36">
-        <f>$L$20+I26</f>
-        <v>-12969.012251461989</v>
-      </c>
-      <c r="J36">
-        <f>$L$20+J26+I26</f>
-        <v>-2109.5522124756408</v>
-      </c>
-      <c r="K36">
-        <f>$L$20+K26+J26+I26</f>
-        <v>9965.2385463543287</v>
-      </c>
-      <c r="L36">
-        <f>$L$20+L26+K26+J26+I26</f>
-        <v>23374.672668234376</v>
-      </c>
-      <c r="M36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H38" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="I38" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="J38" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="K38" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="L38" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="M38" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="N38" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H39" s="13"/>
-      <c r="I39" s="5">
-        <f>($B$4*1000*B12*B21)/(360/B27)</f>
-        <v>1071388.888888889</v>
-      </c>
-      <c r="J39" s="5">
-        <f>($B$4*1000*B12*B19)/(360/$B28)</f>
-        <v>1788888.888888889</v>
-      </c>
-      <c r="K39" s="5">
-        <f>($B$4*1000*B12*B19)/(360/$B29)</f>
-        <v>447222.22222222225</v>
-      </c>
-      <c r="L39" s="5">
-        <f>I8/(360/$B30)</f>
-        <v>3256.9444444444443</v>
-      </c>
-      <c r="M39" s="5">
-        <f>($B$4*1000*B12*B21)/(360/$B31)</f>
-        <v>2086388.8888888888</v>
-      </c>
-      <c r="N39" s="14"/>
-    </row>
-    <row r="40" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H40" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="I40" s="25">
-        <f>SUM(I39,J39,K39,L39,M39)/1000</f>
-        <v>5397.145833333333</v>
-      </c>
-      <c r="J40" s="22"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="22"/>
-      <c r="M40" s="22"/>
-      <c r="N40" s="26"/>
-    </row>
-    <row r="41" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H41" s="13"/>
-      <c r="I41" s="27">
-        <f>I42-I39</f>
-        <v>306111.11111111101</v>
-      </c>
-      <c r="J41" s="27">
-        <f t="shared" ref="J41:M41" si="10">J42-J39</f>
-        <v>511111.11111111101</v>
-      </c>
-      <c r="K41" s="27">
-        <f t="shared" si="10"/>
-        <v>127777.77777777775</v>
-      </c>
-      <c r="L41" s="27">
-        <f t="shared" si="10"/>
-        <v>930.55555555555566</v>
-      </c>
-      <c r="M41" s="27">
-        <f t="shared" si="10"/>
-        <v>596111.11111111124</v>
-      </c>
-      <c r="N41" s="28">
-        <f>SUM(I41,J41,K41,L41,M41)/1000</f>
-        <v>1542.0416666666665</v>
-      </c>
-    </row>
-    <row r="42" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H42" s="13"/>
-      <c r="I42" s="5">
-        <f>($B$4*1000*$C12*$B21)/$E27</f>
-        <v>1377500</v>
-      </c>
-      <c r="J42" s="5">
-        <f>($B$4*1000*$C12*$B19)/$E28</f>
-        <v>2300000</v>
-      </c>
-      <c r="K42" s="5">
-        <f>($B$4*1000*$C12*$B19)/$E29</f>
-        <v>575000</v>
-      </c>
-      <c r="L42" s="5">
-        <f>J8/$E30</f>
-        <v>4187.5</v>
-      </c>
-      <c r="M42" s="5">
-        <f>($B$4*1000*$C12*$B21)/$E31</f>
-        <v>2682500</v>
-      </c>
-      <c r="N42" s="14">
+      <c r="E32" s="6"/>
+      <c r="G32" s="3"/>
+      <c r="M32" s="12">
+        <f>IRR(I54:N54)</f>
+        <v>-0.16466945452601089</v>
+      </c>
+    </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G44" s="3"/>
+    </row>
+    <row r="45" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G45" s="3"/>
+    </row>
+    <row r="46" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G46" s="3"/>
+    </row>
+    <row r="47" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G47" s="3"/>
+    </row>
+    <row r="48" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G48" s="3"/>
+    </row>
+    <row r="49" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G49" s="3"/>
+    </row>
+    <row r="50" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G50" s="3"/>
+    </row>
+    <row r="51" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G51" s="3"/>
+    </row>
+    <row r="52" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G52" s="3"/>
+      <c r="I52" s="3">
+        <v>-1000000</v>
+      </c>
+    </row>
+    <row r="54" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="H54" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I54" s="3">
+        <f>12*I52</f>
+        <v>-12000000</v>
+      </c>
+      <c r="J54" s="3">
+        <f>-8051323</f>
+        <v>-8051323</v>
+      </c>
+      <c r="K54" s="3">
+        <v>-9532313</v>
+      </c>
+      <c r="L54" s="3">
+        <v>-6313934</v>
+      </c>
+      <c r="M54" s="3">
+        <v>7424889</v>
+      </c>
+      <c r="N54" s="3">
+        <v>12560355</v>
+      </c>
+    </row>
+    <row r="55" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="I55" s="3">
         <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H43" s="13"/>
-      <c r="I43" s="27">
-        <f>I44-I42</f>
-        <v>153055.55555555574</v>
-      </c>
-      <c r="J43" s="27">
-        <f t="shared" ref="J43:M43" si="11">J44-J42</f>
-        <v>255555.5555555555</v>
-      </c>
-      <c r="K43" s="27">
-        <f t="shared" si="11"/>
-        <v>63888.888888888876</v>
-      </c>
-      <c r="L43" s="27">
-        <f t="shared" si="11"/>
-        <v>465.27777777777737</v>
-      </c>
-      <c r="M43" s="27">
-        <f t="shared" si="11"/>
-        <v>298055.5555555555</v>
-      </c>
-      <c r="N43" s="28">
-        <f>SUM(I43,J43,K43,L43,M43)/1000</f>
-        <v>771.02083333333337</v>
-      </c>
-    </row>
-    <row r="44" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H44" s="13"/>
-      <c r="I44" s="5">
-        <f>($B$4*1000*$D$12*$B$21)/$E$27</f>
-        <v>1530555.5555555557</v>
-      </c>
-      <c r="J44" s="5">
-        <f>($B$4*1000*$D$12*$B$19)/$E$28</f>
-        <v>2555555.5555555555</v>
-      </c>
-      <c r="K44" s="5">
-        <f>($B$4*1000*$D$12*$B$19)/$E$29</f>
-        <v>638888.88888888888</v>
-      </c>
-      <c r="L44" s="5">
-        <f>K8/$E$30</f>
-        <v>4652.7777777777774</v>
-      </c>
-      <c r="M44" s="5">
-        <f>($B$4*1000*$D$12*$B$21)/$E$31</f>
-        <v>2980555.5555555555</v>
-      </c>
-      <c r="N44" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H45" s="13"/>
-      <c r="I45" s="27">
-        <v>0</v>
-      </c>
-      <c r="J45" s="27">
-        <v>0</v>
-      </c>
-      <c r="K45" s="27">
-        <v>0</v>
-      </c>
-      <c r="L45" s="27">
-        <v>0</v>
-      </c>
-      <c r="M45" s="27">
-        <v>0</v>
-      </c>
-      <c r="N45" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H46" s="13"/>
-      <c r="I46" s="5">
-        <f>($B$4*1000*$E$12*$B$21)/$E$27</f>
-        <v>1530555.5555555557</v>
-      </c>
-      <c r="J46" s="5">
-        <f>($B$4*1000*$E$12*$B$19)/$E$28</f>
-        <v>2555555.5555555555</v>
-      </c>
-      <c r="K46" s="5">
-        <f>($B$4*1000*$E$12*$B$19)/$E$29</f>
-        <v>638888.88888888888</v>
-      </c>
-      <c r="L46" s="5">
-        <f>L8/$E$30</f>
-        <v>4652.7777777777774</v>
-      </c>
-      <c r="M46" s="5">
-        <f>($B$4*1000*$E$12*$B$21)/$E$31</f>
-        <v>2980555.5555555555</v>
-      </c>
-      <c r="N46" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H47" s="13"/>
-      <c r="I47" s="27">
-        <f>I48-I46</f>
-        <v>-306111.11111111124</v>
-      </c>
-      <c r="J47" s="27">
-        <f t="shared" ref="J47:M47" si="12">J48-J46</f>
-        <v>-511111.11111111101</v>
-      </c>
-      <c r="K47" s="27">
-        <f t="shared" si="12"/>
-        <v>-127777.77777777775</v>
-      </c>
-      <c r="L47" s="27">
-        <f t="shared" si="12"/>
-        <v>-930.5555555555552</v>
-      </c>
-      <c r="M47" s="27">
-        <f t="shared" si="12"/>
-        <v>-596111.11111111101</v>
-      </c>
-      <c r="N47" s="28">
-        <f>SUM(I47:M47)/1000</f>
-        <v>-1542.0416666666665</v>
-      </c>
-    </row>
-    <row r="48" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H48" s="13"/>
-      <c r="I48" s="5">
-        <f>($B$4*1000*$F$12*$B$21)/$E$27</f>
-        <v>1224444.4444444445</v>
-      </c>
-      <c r="J48" s="5">
-        <f>($B$4*1000*$F$12*$B$19)/$E$28</f>
-        <v>2044444.4444444445</v>
-      </c>
-      <c r="K48" s="5">
-        <f>($B$4*1000*$F$12*$B$19)/$E$29</f>
-        <v>511111.11111111112</v>
-      </c>
-      <c r="L48" s="5">
-        <f>M8/$E$30</f>
-        <v>3722.2222222222222</v>
-      </c>
-      <c r="M48" s="5">
-        <f>($B$4*1000*$F$12*$B$21)/$E$31</f>
-        <v>2384444.4444444445</v>
-      </c>
-      <c r="N48" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H49" s="13"/>
-      <c r="I49" s="27">
-        <f>I50-I48</f>
-        <v>-1224444.4444444445</v>
-      </c>
-      <c r="J49" s="27">
-        <f t="shared" ref="J49:M49" si="13">J50-J48</f>
-        <v>-2044444.4444444445</v>
-      </c>
-      <c r="K49" s="27">
-        <f t="shared" si="13"/>
-        <v>-511111.11111111112</v>
-      </c>
-      <c r="L49" s="27">
-        <f t="shared" si="13"/>
-        <v>-3722.2222222222222</v>
-      </c>
-      <c r="M49" s="27">
-        <f t="shared" si="13"/>
-        <v>-2384444.4444444445</v>
-      </c>
-      <c r="N49" s="28">
-        <f>SUM(I49:M49)/1000</f>
-        <v>-6168.1666666666661</v>
-      </c>
-    </row>
-    <row r="50" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H50" s="15"/>
-      <c r="I50" s="16">
-        <v>0</v>
-      </c>
-      <c r="J50" s="16">
-        <v>0</v>
-      </c>
-      <c r="K50" s="16">
-        <v>0</v>
-      </c>
-      <c r="L50" s="16">
-        <v>0</v>
-      </c>
-      <c r="M50" s="16">
-        <v>0</v>
-      </c>
-      <c r="N50" s="17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="H54" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="I54">
-        <f>I24+4000-N41+(6400-8000)</f>
-        <v>10269.066166666667</v>
-      </c>
-      <c r="J54">
-        <f>J24+4000-$N43+(3200-6400)</f>
-        <v>14141.933433333328</v>
-      </c>
-      <c r="K54">
-        <f>K24+4000-$N45+(-3200)</f>
-        <v>18689.333799999993</v>
-      </c>
-      <c r="L54">
-        <f>L24+4000-$N47</f>
-        <v>28190.041666666664</v>
-      </c>
-      <c r="M54">
-        <f>M24+4000-$N49</f>
-        <v>27806.566666666666</v>
       </c>
     </row>
   </sheetData>
@@ -1857,105 +1028,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
     </row>
     <row r="2" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B2" s="6">
+      <c r="B2" s="4">
         <v>1</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="4">
         <v>2</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="4">
         <v>3</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="4">
         <v>4</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="4">
         <v>5</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="4">
         <v>6</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="4">
         <v>7</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="4">
         <v>8</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="4">
         <v>9</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="4">
         <v>10</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="4">
         <v>11</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2" s="4">
         <v>13</v>
       </c>
-      <c r="O2" s="6">
+      <c r="O2" s="4">
         <v>14</v>
       </c>
-      <c r="P2" s="6">
+      <c r="P2" s="4">
         <v>15</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="Q2" s="4">
         <v>16</v>
       </c>
-      <c r="R2" s="6">
+      <c r="R2" s="4">
         <v>17</v>
       </c>
-      <c r="S2" s="6">
+      <c r="S2" s="4">
         <v>18</v>
       </c>
-      <c r="T2" s="6">
+      <c r="T2" s="4">
         <v>19</v>
       </c>
-      <c r="U2" s="6">
+      <c r="U2" s="4">
         <v>20</v>
       </c>
-      <c r="V2" s="6">
+      <c r="V2" s="4">
         <v>21</v>
       </c>
-      <c r="W2" s="6">
+      <c r="W2" s="4">
         <v>22</v>
       </c>
-      <c r="X2" s="6">
+      <c r="X2" s="4">
         <v>23</v>
       </c>
-      <c r="Y2" s="6">
+      <c r="Y2" s="4">
         <v>24</v>
       </c>
-      <c r="Z2" s="6">
+      <c r="Z2" s="4">
         <v>25</v>
       </c>
     </row>
@@ -2972,8 +2143,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>46</v>
+      <c r="A1" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
